--- a/TeX/figures/OM_reactivity/Age_OM.xlsx
+++ b/TeX/figures/OM_reactivity/Age_OM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>AGE OM</t>
   </si>
@@ -26,13 +26,19 @@
     <t>Days</t>
   </si>
   <si>
-    <t>w</t>
+    <t>w (cm/year)</t>
   </si>
   <si>
     <t>Age OM in sediments</t>
   </si>
   <si>
     <t>at 50cm</t>
+  </si>
+  <si>
+    <t>at 5cm</t>
+  </si>
+  <si>
+    <t>t=10years</t>
   </si>
 </sst>
 </file>
@@ -107,8 +113,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,10 +139,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -157,11 +167,20 @@
       <c r="E3" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,6 +214,14 @@
         <f aca="false">50/F4</f>
         <v>5000</v>
       </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">5/F4</f>
+        <v>500</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">10*F4</f>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -226,6 +253,14 @@
       <c r="I5" s="0" t="n">
         <f aca="false">50/F5</f>
         <v>50000</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">5/F5</f>
+        <v>5000</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">10*F5</f>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
